--- a/data-raw/SampleSDA_data.xlsx
+++ b/data-raw/SampleSDA_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentjerosch-herold/Dropbox (2° Investing)/PortCheck_v2/10_Projects/ACA_Mandate/20_Raw_Inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mauro\git\r2dii.analysis\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E72FE9D-DB7C-DC4A-815D-8D7E3A7F1DC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82407372-8721-4B3B-BA1E-6B28C00202FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14500" activeTab="1" xr2:uid="{9BD0FD79-668D-4E4D-AE2D-0D2C40C98278}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{9BD0FD79-668D-4E4D-AE2D-0D2C40C98278}"/>
   </bookViews>
   <sheets>
     <sheet name="Market" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="18">
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>GlobalMarket</t>
+  </si>
+  <si>
+    <t>B2DS</t>
+  </si>
+  <si>
+    <t>PortfolioWeight</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Ownership</t>
+  </si>
+  <si>
+    <t>Investor1</t>
+  </si>
+  <si>
+    <t>Portfolio1</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
   <si>
     <t>Investor.Name</t>
   </si>
@@ -55,172 +82,10 @@
     <t>Plan.Sec.EmissionsFactor</t>
   </si>
   <si>
-    <t>Scen.Sec.EmissionsFactor</t>
+    <t>ScenarioGeography</t>
   </si>
   <si>
-    <t>Market</t>
-  </si>
-  <si>
-    <t>GlobalMarket</t>
-  </si>
-  <si>
-    <t>B2DS</t>
-  </si>
-  <si>
-    <t>PortfolioWeight</t>
-  </si>
-  <si>
-    <t>Steel</t>
-  </si>
-  <si>
-    <t>NaN</t>
-  </si>
-  <si>
-    <t>Ownership</t>
-  </si>
-  <si>
-    <t>Investor1</t>
-  </si>
-  <si>
-    <t>Investor2</t>
-  </si>
-  <si>
-    <t>Investor3</t>
-  </si>
-  <si>
-    <t>Investor4</t>
-  </si>
-  <si>
-    <t>Investor5</t>
-  </si>
-  <si>
-    <t>Investor6</t>
-  </si>
-  <si>
-    <t>Investor7</t>
-  </si>
-  <si>
-    <t>Investor8</t>
-  </si>
-  <si>
-    <t>Investor9</t>
-  </si>
-  <si>
-    <t>Investor10</t>
-  </si>
-  <si>
-    <t>Investor11</t>
-  </si>
-  <si>
-    <t>Investor12</t>
-  </si>
-  <si>
-    <t>Investor13</t>
-  </si>
-  <si>
-    <t>Investor14</t>
-  </si>
-  <si>
-    <t>Investor15</t>
-  </si>
-  <si>
-    <t>Investor16</t>
-  </si>
-  <si>
-    <t>Investor17</t>
-  </si>
-  <si>
-    <t>Investor18</t>
-  </si>
-  <si>
-    <t>Investor19</t>
-  </si>
-  <si>
-    <t>Investor20</t>
-  </si>
-  <si>
-    <t>Investor21</t>
-  </si>
-  <si>
-    <t>Investor22</t>
-  </si>
-  <si>
-    <t>Investor23</t>
-  </si>
-  <si>
-    <t>Investor24</t>
-  </si>
-  <si>
-    <t>Portfolio1</t>
-  </si>
-  <si>
-    <t>Portfolio2</t>
-  </si>
-  <si>
-    <t>Portfolio3</t>
-  </si>
-  <si>
-    <t>Portfolio4</t>
-  </si>
-  <si>
-    <t>Portfolio5</t>
-  </si>
-  <si>
-    <t>Portfolio6</t>
-  </si>
-  <si>
-    <t>Portfolio7</t>
-  </si>
-  <si>
-    <t>Portfolio8</t>
-  </si>
-  <si>
-    <t>Portfolio9</t>
-  </si>
-  <si>
-    <t>Portfolio10</t>
-  </si>
-  <si>
-    <t>Portfolio11</t>
-  </si>
-  <si>
-    <t>Portfolio12</t>
-  </si>
-  <si>
-    <t>Portfolio13</t>
-  </si>
-  <si>
-    <t>Portfolio14</t>
-  </si>
-  <si>
-    <t>Portfolio15</t>
-  </si>
-  <si>
-    <t>Portfolio16</t>
-  </si>
-  <si>
-    <t>Portfolio17</t>
-  </si>
-  <si>
-    <t>Portfolio18</t>
-  </si>
-  <si>
-    <t>Portfolio19</t>
-  </si>
-  <si>
-    <t>Portfolio20</t>
-  </si>
-  <si>
-    <t>Portfolio21</t>
-  </si>
-  <si>
-    <t>Portfolio22</t>
-  </si>
-  <si>
-    <t>Portfolio23</t>
-  </si>
-  <si>
-    <t>Portfolio24</t>
+    <t>Scen.Sec.EmissionsFactor</t>
   </si>
 </sst>
 </file>
@@ -579,661 +444,727 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B82439A-791C-784A-B25F-4AE54406B884}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="A1:H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.9375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>2019</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1">
         <v>1.1063529999999999</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1.1063532</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>2020</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
         <v>1.1063529999999999</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.0608054</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>2021</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
         <v>1.1063529999999999</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.0152576</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>2022</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
         <v>1.1063529999999999</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.96970979999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>2023</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
         <v>1.1063529999999999</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.92416200000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7">
         <v>2024</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
         <v>1.1063529999999999</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.87861429999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8">
         <v>2025</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
         <v>1.1063529999999999</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.83306650000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9">
         <v>2026</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9">
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9">
         <v>0.79554329999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10">
         <v>2027</v>
       </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10">
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10">
         <v>0.75802020000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11">
         <v>2028</v>
       </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11">
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11">
         <v>0.7204971</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12">
         <v>2029</v>
       </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12">
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12">
         <v>0.68297399999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13">
         <v>2040</v>
       </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13">
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13">
         <v>0.36639359999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14">
         <v>2019</v>
       </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
         <v>1.1449149999999999</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.1449153999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15">
         <v>2020</v>
       </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1">
         <v>1.1449149999999999</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1.0977801</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16">
         <v>2021</v>
       </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
         <v>1.1449149999999999</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.0506447000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17">
         <v>2022</v>
       </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
         <v>1.1449149999999999</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1.0035092999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18">
         <v>2023</v>
       </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
         <v>1.1449149999999999</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.95637399999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19">
         <v>2024</v>
       </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="G19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1">
         <v>1.1449149999999999</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.90923860000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20">
         <v>2025</v>
       </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
         <v>1.1449149999999999</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.86210319999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21">
         <v>2026</v>
       </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21">
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21">
         <v>0.82327220000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22">
         <v>2027</v>
       </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22">
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22">
         <v>0.78444119999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23">
         <v>2028</v>
       </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23">
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23">
         <v>0.7456102</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24">
         <v>2029</v>
       </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24">
+      <c r="G24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24">
         <v>0.70677920000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25">
         <v>2040</v>
       </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25">
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25">
         <v>0.37916430000000001</v>
       </c>
     </row>
@@ -1244,587 +1175,728 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42920593-AE67-0548-80FE-81CE192C7187}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.9375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>2019</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>1.1063532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>2020</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>1.0608054</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>2021</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>1.0152576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>2022</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>0.96970979999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>2023</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>0.92416200000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7">
         <v>2024</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>0.87861429999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8">
         <v>2025</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>0.83306650000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9">
         <v>2026</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9">
+        <v>0.79554329999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10">
         <v>2027</v>
       </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10">
+        <v>0.75802020000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11">
         <v>2028</v>
       </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11">
+        <v>0.7204971</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12">
         <v>2029</v>
       </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12">
+        <v>0.68297399999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13">
         <v>2040</v>
       </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13">
+        <v>0.36639359999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14">
         <v>2019</v>
       </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>1.1449153999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15">
         <v>2020</v>
       </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>1.0977801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16">
         <v>2021</v>
       </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>1.0506447000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17">
         <v>2022</v>
       </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>1.0035092999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18">
         <v>2023</v>
       </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>0.95637399999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19">
         <v>2024</v>
       </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="G19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>0.90923860000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20">
         <v>2025</v>
       </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>0.86210319999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21">
         <v>2026</v>
       </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21">
+        <v>0.82327220000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22">
         <v>2027</v>
       </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22">
+        <v>0.78444119999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23">
         <v>2028</v>
       </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23">
+        <v>0.7456102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24">
         <v>2029</v>
       </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24">
+        <v>0.70677920000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25">
         <v>2040</v>
       </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>13</v>
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25">
+        <v>0.37916430000000001</v>
       </c>
     </row>
   </sheetData>
